--- a/days_info_dict.xlsx
+++ b/days_info_dict.xlsx
@@ -471,7 +471,9 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -497,7 +499,9 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Tue</t>
@@ -523,7 +527,9 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Wed</t>
@@ -549,7 +555,9 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Thu</t>
@@ -575,7 +583,9 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Fri</t>
@@ -601,7 +611,9 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Sat</t>
@@ -627,7 +639,9 @@
           <t>Sunday</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Sun</t>
